--- a/public/plantilla_facturador_web.xlsx
+++ b/public/plantilla_facturador_web.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48D0E39-BE16-49C3-9C3F-6FC79DA5439B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B1B2A8-C44C-4396-AD24-13C4F3C47594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DNI</t>
-  </si>
-  <si>
-    <t>UNITARIO</t>
-  </si>
-  <si>
-    <t>UNIDADES</t>
   </si>
   <si>
     <t>DIRECCION</t>
@@ -39,13 +33,16 @@
     <t>NOMBRE_COMPLETO</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>FECHA</t>
   </si>
   <si>
-    <t>DESCRIPCION</t>
+    <t>DESCRIPCION_1</t>
   </si>
   <si>
-    <t>FECHA</t>
+    <t>UNIDADES_1</t>
+  </si>
+  <si>
+    <t>UNITARIO_1</t>
   </si>
 </sst>
 </file>
@@ -119,9 +116,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,9 +156,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,26 +191,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,26 +226,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H274"/>
+  <dimension ref="A1:G274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,38 +414,34 @@
     <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -490,9 +449,8 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -500,9 +458,8 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -510,9 +467,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -520,9 +476,8 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -530,9 +485,8 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -540,9 +494,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -550,9 +503,8 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -560,9 +512,8 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -570,9 +521,8 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -580,9 +530,8 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -590,9 +539,8 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -600,9 +548,8 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -610,9 +557,8 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -620,9 +566,8 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -630,9 +575,8 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -640,9 +584,8 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -650,9 +593,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -660,9 +602,8 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -670,9 +611,8 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -680,9 +620,8 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -690,9 +629,8 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -700,9 +638,8 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -710,9 +647,8 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -720,9 +656,8 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -730,9 +665,8 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -740,9 +674,8 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -750,9 +683,8 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -760,9 +692,8 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -770,9 +701,8 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -780,9 +710,8 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -790,9 +719,8 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -800,9 +728,8 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -810,9 +737,8 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -820,9 +746,8 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -830,9 +755,8 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -840,9 +764,8 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -850,9 +773,8 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -860,9 +782,8 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -870,9 +791,8 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -880,9 +800,8 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -890,9 +809,8 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -900,9 +818,8 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -910,9 +827,8 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -920,9 +836,8 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -930,9 +845,8 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -940,9 +854,8 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -950,9 +863,8 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -960,9 +872,8 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -970,9 +881,8 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -980,9 +890,8 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -990,9 +899,8 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1000,9 +908,8 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1010,9 +917,8 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1020,9 +926,8 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1030,9 +935,8 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1040,9 +944,8 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1050,9 +953,8 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1060,9 +962,8 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1070,9 +971,8 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1080,9 +980,8 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1090,9 +989,8 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1100,9 +998,8 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1110,9 +1007,8 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1120,9 +1016,8 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1130,9 +1025,8 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1140,9 +1034,8 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1150,9 +1043,8 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1160,9 +1052,8 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1170,9 +1061,8 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1180,9 +1070,8 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1190,9 +1079,8 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1200,9 +1088,8 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1210,9 +1097,8 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1220,9 +1106,8 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1230,9 +1115,8 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1240,9 +1124,8 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1250,9 +1133,8 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1260,9 +1142,8 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1270,9 +1151,8 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1280,9 +1160,8 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1290,9 +1169,8 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1300,9 +1178,8 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1310,9 +1187,8 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1320,9 +1196,8 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1330,9 +1205,8 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1340,9 +1214,8 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1350,9 +1223,8 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1360,9 +1232,8 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1370,9 +1241,8 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1380,9 +1250,8 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1390,9 +1259,8 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1400,9 +1268,8 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1410,9 +1277,8 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1420,9 +1286,8 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1430,9 +1295,8 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1440,9 +1304,8 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1450,9 +1313,8 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1460,9 +1322,8 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1470,9 +1331,8 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1480,9 +1340,8 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1490,9 +1349,8 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1500,9 +1358,8 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1510,9 +1367,8 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1520,9 +1376,8 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1530,9 +1385,8 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1540,9 +1394,8 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1550,9 +1403,8 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1560,9 +1412,8 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1570,9 +1421,8 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1580,9 +1430,8 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1590,9 +1439,8 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1600,9 +1448,8 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1610,9 +1457,8 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1620,9 +1466,8 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1630,9 +1475,8 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1640,9 +1484,8 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1650,9 +1493,8 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1660,9 +1502,8 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1670,9 +1511,8 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1680,9 +1520,8 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1690,9 +1529,8 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1700,9 +1538,8 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1710,9 +1547,8 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1720,9 +1556,8 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1730,9 +1565,8 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1740,9 +1574,8 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1750,9 +1583,8 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1760,9 +1592,8 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1770,9 +1601,8 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1780,9 +1610,8 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1790,9 +1619,8 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1800,9 +1628,8 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1810,9 +1637,8 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1820,9 +1646,8 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1830,9 +1655,8 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1840,9 +1664,8 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1850,9 +1673,8 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1860,9 +1682,8 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1870,9 +1691,8 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1880,9 +1700,8 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1890,9 +1709,8 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1900,9 +1718,8 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1910,9 +1727,8 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1920,9 +1736,8 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1930,9 +1745,8 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1940,9 +1754,8 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1950,9 +1763,8 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1960,9 +1772,8 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1970,9 +1781,8 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -1980,9 +1790,8 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -1990,9 +1799,8 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2000,9 +1808,8 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2010,9 +1817,8 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2020,9 +1826,8 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2030,9 +1835,8 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2040,9 +1844,8 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2050,9 +1853,8 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2060,9 +1862,8 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2070,9 +1871,8 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2080,9 +1880,8 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2090,9 +1889,8 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2100,9 +1898,8 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2110,9 +1907,8 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2120,9 +1916,8 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2130,9 +1925,8 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2140,9 +1934,8 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2150,9 +1943,8 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2160,9 +1952,8 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2170,9 +1961,8 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2180,9 +1970,8 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2190,9 +1979,8 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2200,9 +1988,8 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2210,9 +1997,8 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2220,9 +2006,8 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -2230,9 +2015,8 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -2240,9 +2024,8 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -2250,9 +2033,8 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2260,9 +2042,8 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2270,9 +2051,8 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2280,9 +2060,8 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2290,9 +2069,8 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2300,9 +2078,8 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2310,9 +2087,8 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2320,9 +2096,8 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2330,9 +2105,8 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2340,9 +2114,8 @@
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2350,9 +2123,8 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2360,9 +2132,8 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2370,9 +2141,8 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2380,9 +2150,8 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2390,9 +2159,8 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2400,9 +2168,8 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2410,9 +2177,8 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2420,9 +2186,8 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2430,9 +2195,8 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2440,9 +2204,8 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2450,9 +2213,8 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2460,9 +2222,8 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2470,9 +2231,8 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2480,9 +2240,8 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2490,9 +2249,8 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2500,9 +2258,8 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2510,9 +2267,8 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2520,9 +2276,8 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2530,9 +2285,8 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -2540,9 +2294,8 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -2550,9 +2303,8 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -2560,9 +2312,8 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -2570,9 +2321,8 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -2580,9 +2330,8 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -2590,9 +2339,8 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -2600,9 +2348,8 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -2610,9 +2357,8 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -2620,9 +2366,8 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -2630,9 +2375,8 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -2640,9 +2384,8 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -2650,9 +2393,8 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -2660,9 +2402,8 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2670,9 +2411,8 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2680,9 +2420,8 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2690,9 +2429,8 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -2700,9 +2438,8 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -2710,9 +2447,8 @@
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -2720,9 +2456,8 @@
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -2730,9 +2465,8 @@
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -2740,9 +2474,8 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -2750,9 +2483,8 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -2760,9 +2492,8 @@
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -2770,9 +2501,8 @@
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -2780,9 +2510,8 @@
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -2790,9 +2519,8 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -2800,9 +2528,8 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -2810,9 +2537,8 @@
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -2820,9 +2546,8 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -2830,9 +2555,8 @@
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -2840,9 +2564,8 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="1"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -2850,9 +2573,8 @@
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -2860,9 +2582,8 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -2870,9 +2591,8 @@
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -2880,9 +2600,8 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
-      <c r="H241" s="1"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -2890,9 +2609,8 @@
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -2900,9 +2618,8 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -2910,9 +2627,8 @@
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -2920,9 +2636,8 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -2930,9 +2645,8 @@
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
-      <c r="H246" s="1"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -2940,9 +2654,8 @@
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2950,9 +2663,8 @@
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -2960,9 +2672,8 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -2970,9 +2681,8 @@
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -2980,9 +2690,8 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -2990,9 +2699,8 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -3000,9 +2708,8 @@
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
-      <c r="H253" s="1"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -3010,9 +2717,8 @@
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
-      <c r="H254" s="1"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -3020,9 +2726,8 @@
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -3030,9 +2735,8 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
-      <c r="H256" s="1"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -3040,9 +2744,8 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
-      <c r="H257" s="1"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -3050,9 +2753,8 @@
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
-      <c r="H258" s="1"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -3060,9 +2762,8 @@
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
-      <c r="H259" s="1"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -3070,9 +2771,8 @@
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
-      <c r="H260" s="1"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -3080,9 +2780,8 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
-      <c r="H261" s="1"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -3090,9 +2789,8 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
-      <c r="H262" s="1"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -3100,9 +2798,8 @@
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
-      <c r="H263" s="1"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -3110,9 +2807,8 @@
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
-      <c r="H264" s="1"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -3120,9 +2816,8 @@
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
-      <c r="H265" s="1"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -3130,9 +2825,8 @@
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
-      <c r="H266" s="1"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -3140,9 +2834,8 @@
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
-      <c r="H267" s="1"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -3150,9 +2843,8 @@
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
-      <c r="H268" s="1"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -3160,9 +2852,8 @@
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -3170,9 +2861,8 @@
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
-      <c r="H270" s="1"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -3180,9 +2870,8 @@
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
-      <c r="H271" s="1"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -3190,9 +2879,8 @@
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
-      <c r="H272" s="1"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -3200,9 +2888,8 @@
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
-      <c r="H273" s="1"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -3210,7 +2897,6 @@
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
-      <c r="H274" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
